--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2585,10 +2597,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2632,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2678,28 +2690,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2770,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2805,28 +2817,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2863,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2989,10 +3001,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3036,28 +3048,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3082,28 +3094,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3423,10 +3435,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3470,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3516,28 +3528,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3885,10 +3897,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3932,28 +3944,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3978,28 +3990,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4261,10 +4273,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4308,28 +4320,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4354,28 +4366,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4492,10 +4504,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4539,28 +4551,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4585,28 +4597,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4665,10 +4677,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4712,28 +4724,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4758,28 +4770,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4850,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4885,28 +4897,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4943,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5011,10 +5023,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5058,28 +5070,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5104,28 +5116,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5184,10 +5196,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5231,28 +5243,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5277,28 +5289,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5659,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5706,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5752,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5820,10 +5832,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5867,28 +5879,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5913,28 +5925,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5993,10 +6005,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6040,28 +6052,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6086,28 +6098,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6166,10 +6178,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6213,28 +6225,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6259,28 +6271,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6339,10 +6351,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6386,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6432,28 +6444,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6802,10 +6814,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6849,28 +6861,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6895,28 +6907,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6975,10 +6987,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7022,28 +7034,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7068,28 +7080,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7148,10 +7160,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7195,28 +7207,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7241,28 +7253,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7333,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7380,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7426,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
